--- a/Tables/all_deltaAIC.xlsx
+++ b/Tables/all_deltaAIC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BEAC27E-3AAB-164F-8E55-3645CDADA957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67012E0-0DBF-864F-B9C2-18434ABE3A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{FFA649ED-8807-E04B-B1F2-F8C943420CAF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>SPEI</t>
   </si>
@@ -71,13 +71,19 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Old</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +110,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,12 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,6 +189,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,216 +523,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932C9081-F7CA-E04D-A97F-E554BF0F8080}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
         <v>2.9571439399999999</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D5" s="5">
         <v>6.4545487699999997</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="5">
         <v>8.4696803599999999</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F5" s="5">
         <v>3.4324533399999999</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G5" s="5">
         <v>9.9395854900000007</v>
       </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <v>7.4419330300000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="5">
         <v>8.0882100000000001</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
         <v>5.0927274200000001</v>
       </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>5.9909307600000004</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G6" s="5">
         <v>5.5504990300000001</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H6" s="5">
         <v>3.9713367599999998</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I6" s="5">
         <v>3.7092498800000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="5">
         <v>3.8883365400000001</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="5">
         <v>3.6863822499999999</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>6.9086570800000002</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F7" s="5">
         <v>5.0750563499999997</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G7" s="5">
         <v>4.7596591999999998</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H7" s="5">
         <v>2.9208067400000002</v>
       </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="5">
         <v>12.8722233</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="5">
         <v>10.230383399999999</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D8" s="5">
         <v>14.2414135</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="5">
         <v>12.7171102</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F8" s="5">
         <v>6.8878214099999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G8" s="5">
         <v>2.7634185000000002</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="8">
         <v>1.9440883799999999</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="5">
         <v>7.8719344800000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B9" s="7">
         <v>11.7397218</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="7">
         <v>13.7099668</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="7">
         <v>14.0091248</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="7">
         <v>14.7562769</v>
       </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>1.4606215600000001</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="7">
         <v>6.1150561400000001</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2.9571439410574398</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>7.4419330270356996</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>5.1799262937711301</v>
+      </c>
+      <c r="H15" s="12">
+        <v>6.4545487711802698</v>
+      </c>
+      <c r="I15" s="12">
+        <v>8.4696803600745607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12">
+        <v>8.0882099968330294</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3.9713367586773498</v>
+      </c>
+      <c r="E16" s="12">
+        <v>3.7092498789497799</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2.5584774261260499</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.79083983026794202</v>
+      </c>
+      <c r="H16" s="12">
+        <v>5.0927274150271797</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3.88833653505935</v>
+      </c>
+      <c r="C17" s="12">
+        <v>3.6863822517661902</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2.9208067359832102</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1.6426030115544601</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>6.9086570846593496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12">
+        <v>12.8722232803339</v>
+      </c>
+      <c r="C18" s="12">
+        <v>10.230383398058599</v>
+      </c>
+      <c r="D18" s="12">
+        <v>10.261854615531799</v>
+      </c>
+      <c r="E18" s="12">
+        <v>16.189700706850999</v>
+      </c>
+      <c r="F18" s="12">
+        <v>11.773134234616</v>
+      </c>
+      <c r="G18" s="12">
+        <v>6.3215254643910201</v>
+      </c>
+      <c r="H18" s="12">
+        <v>14.2414135370236</v>
+      </c>
+      <c r="I18" s="12">
+        <v>12.7171102310203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13">
+        <v>11.7397218319893</v>
+      </c>
+      <c r="C19" s="13">
+        <v>13.7099667917137</v>
+      </c>
+      <c r="D19" s="13">
+        <v>14.6439691122832</v>
+      </c>
+      <c r="E19" s="13">
+        <v>19.298403380773401</v>
+      </c>
+      <c r="F19" s="13">
+        <v>9.7508941261730797</v>
+      </c>
+      <c r="G19" s="13">
+        <v>8.4236882717741501</v>
+      </c>
+      <c r="H19" s="13">
+        <v>14.009124790558401</v>
+      </c>
+      <c r="I19" s="13">
+        <v>14.756276942640399</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="8">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/all_deltaAIC.xlsx
+++ b/Tables/all_deltaAIC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67012E0-0DBF-864F-B9C2-18434ABE3A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C1FBC-FA68-2140-A4A6-C6F3941AC087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{FFA649ED-8807-E04B-B1F2-F8C943420CAF}"/>
+    <workbookView xWindow="420" yWindow="1080" windowWidth="27240" windowHeight="15940" xr2:uid="{FFA649ED-8807-E04B-B1F2-F8C943420CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,13 +110,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -191,22 +184,16 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932C9081-F7CA-E04D-A97F-E554BF0F8080}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,22 +530,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -733,28 +720,28 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -787,145 +774,145 @@
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
         <v>2.9571439410574398</v>
       </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="11">
+        <v>6.4545487711802698</v>
+      </c>
+      <c r="E15" s="11">
+        <v>8.4696803600745607</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>5.1799262937711301</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
         <v>7.4419330270356996</v>
-      </c>
-      <c r="F15" s="14">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>5.1799262937711301</v>
-      </c>
-      <c r="H15" s="12">
-        <v>6.4545487711802698</v>
-      </c>
-      <c r="I15" s="12">
-        <v>8.4696803600745607</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>8.0882099968330294</v>
       </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5.0927274150271797</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2.5584774261260499</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.79083983026794202</v>
+      </c>
+      <c r="H16" s="11">
         <v>3.9713367586773498</v>
       </c>
-      <c r="E16" s="12">
+      <c r="I16" s="11">
         <v>3.7092498789497799</v>
-      </c>
-      <c r="F16" s="12">
-        <v>2.5584774261260499</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0.79083983026794202</v>
-      </c>
-      <c r="H16" s="12">
-        <v>5.0927274150271797</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>3.88833653505935</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>3.6863822517661902</v>
       </c>
       <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>6.9086570846593496</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1.6426030115544601</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
         <v>2.9208067359832102</v>
       </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <v>1.6426030115544601</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0</v>
-      </c>
       <c r="I17" s="12">
-        <v>6.9086570846593496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>12.8722232803339</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>10.230383398058599</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
+        <v>14.2414135370236</v>
+      </c>
+      <c r="E18" s="11">
+        <v>12.7171102310203</v>
+      </c>
+      <c r="F18" s="11">
+        <v>11.773134234616</v>
+      </c>
+      <c r="G18" s="11">
+        <v>6.3215254643910201</v>
+      </c>
+      <c r="H18" s="11">
         <v>10.261854615531799</v>
       </c>
-      <c r="E18" s="12">
+      <c r="I18" s="11">
         <v>16.189700706850999</v>
-      </c>
-      <c r="F18" s="12">
-        <v>11.773134234616</v>
-      </c>
-      <c r="G18" s="12">
-        <v>6.3215254643910201</v>
-      </c>
-      <c r="H18" s="12">
-        <v>14.2414135370236</v>
-      </c>
-      <c r="I18" s="12">
-        <v>12.7171102310203</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>11.7397218319893</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>13.7099667917137</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
+        <v>14.009124790558401</v>
+      </c>
+      <c r="E19" s="11">
+        <v>14.756276942640399</v>
+      </c>
+      <c r="F19" s="11">
+        <v>9.7508941261730797</v>
+      </c>
+      <c r="G19" s="11">
+        <v>8.4236882717741501</v>
+      </c>
+      <c r="H19" s="11">
         <v>14.6439691122832</v>
       </c>
-      <c r="E19" s="13">
+      <c r="I19" s="11">
         <v>19.298403380773401</v>
-      </c>
-      <c r="F19" s="13">
-        <v>9.7508941261730797</v>
-      </c>
-      <c r="G19" s="13">
-        <v>8.4236882717741501</v>
-      </c>
-      <c r="H19" s="13">
-        <v>14.009124790558401</v>
-      </c>
-      <c r="I19" s="13">
-        <v>14.756276942640399</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/all_deltaAIC.xlsx
+++ b/Tables/all_deltaAIC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C1FBC-FA68-2140-A4A6-C6F3941AC087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDCB6AF-1849-DC45-9688-63DBCFB7F0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="1080" windowWidth="27240" windowHeight="15940" xr2:uid="{FFA649ED-8807-E04B-B1F2-F8C943420CAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Old" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>SPEI</t>
   </si>
@@ -71,9 +72,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>New</t>
   </si>
   <si>
     <t>Old</t>
@@ -159,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -187,13 +185,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,17 +511,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932C9081-F7CA-E04D-A97F-E554BF0F8080}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2.9571439410574398</v>
+      </c>
+      <c r="D4" s="13">
+        <v>6.4545487711802698</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8.4696803600745607</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>5.1799262937711301</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>7.4419330270356996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13">
+        <v>8.0882099968330294</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>5.0927274150271797</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2.5584774261260499</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.79083983026794202</v>
+      </c>
+      <c r="H5" s="13">
+        <v>3.9713367586773498</v>
+      </c>
+      <c r="I5" s="13">
+        <v>3.7092498789497799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3.88833653505935</v>
+      </c>
+      <c r="C6" s="13">
+        <v>3.6863822517661902</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>6.9086570846593496</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1.6426030115544601</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>2.9208067359832102</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13">
+        <v>12.8722232803339</v>
+      </c>
+      <c r="C7" s="13">
+        <v>10.230383398058599</v>
+      </c>
+      <c r="D7" s="13">
+        <v>14.2414135370236</v>
+      </c>
+      <c r="E7" s="13">
+        <v>12.7171102310203</v>
+      </c>
+      <c r="F7" s="13">
+        <v>11.773134234616</v>
+      </c>
+      <c r="G7" s="13">
+        <v>6.3215254643910201</v>
+      </c>
+      <c r="H7" s="13">
+        <v>10.261854615531799</v>
+      </c>
+      <c r="I7" s="13">
+        <v>16.189700706850999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14">
+        <v>11.7397218319893</v>
+      </c>
+      <c r="C8" s="14">
+        <v>13.7099667917137</v>
+      </c>
+      <c r="D8" s="14">
+        <v>14.009124790558401</v>
+      </c>
+      <c r="E8" s="14">
+        <v>14.756276942640399</v>
+      </c>
+      <c r="F8" s="14">
+        <v>9.7508941261730797</v>
+      </c>
+      <c r="G8" s="14">
+        <v>8.4236882717741501</v>
+      </c>
+      <c r="H8" s="14">
+        <v>14.6439691122832</v>
+      </c>
+      <c r="I8" s="14">
+        <v>19.298403380773401</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31BDE38-1ABE-5249-A7EE-8DD8FF01D7BA}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -530,22 +746,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -719,212 +935,12 @@
         <v>6.1150561400000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15" s="11">
-        <v>2.9571439410574398</v>
-      </c>
-      <c r="D15" s="11">
-        <v>6.4545487711802698</v>
-      </c>
-      <c r="E15" s="11">
-        <v>8.4696803600745607</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>5.1799262937711301</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>7.4419330270356996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="11">
-        <v>8.0882099968330294</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
-        <v>5.0927274150271797</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>2.5584774261260499</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.79083983026794202</v>
-      </c>
-      <c r="H16" s="11">
-        <v>3.9713367586773498</v>
-      </c>
-      <c r="I16" s="11">
-        <v>3.7092498789497799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="11">
-        <v>3.88833653505935</v>
-      </c>
-      <c r="C17" s="11">
-        <v>3.6863822517661902</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>6.9086570846593496</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1.6426030115544601</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2.9208067359832102</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="11">
-        <v>12.8722232803339</v>
-      </c>
-      <c r="C18" s="11">
-        <v>10.230383398058599</v>
-      </c>
-      <c r="D18" s="11">
-        <v>14.2414135370236</v>
-      </c>
-      <c r="E18" s="11">
-        <v>12.7171102310203</v>
-      </c>
-      <c r="F18" s="11">
-        <v>11.773134234616</v>
-      </c>
-      <c r="G18" s="11">
-        <v>6.3215254643910201</v>
-      </c>
-      <c r="H18" s="11">
-        <v>10.261854615531799</v>
-      </c>
-      <c r="I18" s="11">
-        <v>16.189700706850999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="11">
-        <v>11.7397218319893</v>
-      </c>
-      <c r="C19" s="11">
-        <v>13.7099667917137</v>
-      </c>
-      <c r="D19" s="11">
-        <v>14.009124790558401</v>
-      </c>
-      <c r="E19" s="11">
-        <v>14.756276942640399</v>
-      </c>
-      <c r="F19" s="11">
-        <v>9.7508941261730797</v>
-      </c>
-      <c r="G19" s="11">
-        <v>8.4236882717741501</v>
-      </c>
-      <c r="H19" s="11">
-        <v>14.6439691122832</v>
-      </c>
-      <c r="I19" s="11">
-        <v>19.298403380773401</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/all_deltaAIC.xlsx
+++ b/Tables/all_deltaAIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDCB6AF-1849-DC45-9688-63DBCFB7F0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C58CBD7-36A5-7B4F-879C-2F30156133A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="1080" windowWidth="27240" windowHeight="15940" xr2:uid="{FFA649ED-8807-E04B-B1F2-F8C943420CAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>SPEI</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Old</t>
+  </si>
+  <si>
+    <t>2-year</t>
+  </si>
+  <si>
+    <t>3-year</t>
   </si>
 </sst>
 </file>
@@ -185,16 +191,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,7 +520,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,22 +530,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -569,147 +575,147 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
         <v>2.9571439410574398</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>6.4545487711802698</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>8.4696803600745607</v>
       </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
         <v>5.1799262937711301</v>
       </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
         <v>7.4419330270356996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>8.0882099968330294</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
         <v>5.0927274150271797</v>
       </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>2.5584774261260499</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>0.79083983026794202</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>3.9713367586773498</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>3.7092498789497799</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>3.88833653505935</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <v>3.6863822517661902</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
         <v>6.9086570846593496</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1.6426030115544601</v>
       </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
         <v>2.9208067359832102</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="A7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12">
         <v>12.8722232803339</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>10.230383398058599</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>14.2414135370236</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>12.7171102310203</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>11.773134234616</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>6.3215254643910201</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>10.261854615531799</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>16.189700706850999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="14">
+        <v>14</v>
+      </c>
+      <c r="B8" s="13">
         <v>11.7397218319893</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>13.7099667917137</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>14.009124790558401</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>14.756276942640399</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>9.7508941261730797</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>8.4236882717741501</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>14.6439691122832</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>19.298403380773401</v>
       </c>
     </row>
@@ -746,22 +752,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
